--- a/Code/Results/Cases/Case_4_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.145357306553478</v>
+        <v>1.042152351287598</v>
       </c>
       <c r="C2">
-        <v>0.8221690606025334</v>
+        <v>0.2477577134807518</v>
       </c>
       <c r="D2">
-        <v>0.2084247979947094</v>
+        <v>0.07932116302885106</v>
       </c>
       <c r="E2">
-        <v>1.452532459522473</v>
+        <v>0.4213043912050125</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007638613537846566</v>
+        <v>0.00239256667934717</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4761816884849743</v>
+        <v>0.8858854290019202</v>
       </c>
       <c r="O2">
-        <v>2.754089290005084</v>
+        <v>2.36159559119335</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.723188152309945</v>
+        <v>0.9216377364107871</v>
       </c>
       <c r="C3">
-        <v>0.7165762442046457</v>
+        <v>0.21634972604312</v>
       </c>
       <c r="D3">
-        <v>0.1801071248908102</v>
+        <v>0.07182853882660822</v>
       </c>
       <c r="E3">
-        <v>1.243186174192473</v>
+        <v>0.3673556333177004</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007700860058832669</v>
+        <v>0.002396467511749116</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5094115383936177</v>
+        <v>0.8986418128053337</v>
       </c>
       <c r="O3">
-        <v>2.453354598559258</v>
+        <v>2.311976073344738</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.465953166766496</v>
+        <v>0.8477359112253566</v>
       </c>
       <c r="C4">
-        <v>0.6521322774540863</v>
+        <v>0.1970005991078381</v>
       </c>
       <c r="D4">
-        <v>0.1629719971018346</v>
+        <v>0.06726620138621797</v>
       </c>
       <c r="E4">
-        <v>1.117653393126872</v>
+        <v>0.3343431044413165</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007740062492870793</v>
+        <v>0.002398987038450047</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5309603461415833</v>
+        <v>0.9069359562920027</v>
       </c>
       <c r="O4">
-        <v>2.276680949504794</v>
+        <v>2.283618760817149</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.361533213426014</v>
+        <v>0.8176441028412</v>
       </c>
       <c r="C5">
-        <v>0.6259458683299215</v>
+        <v>0.1890994255425085</v>
       </c>
       <c r="D5">
-        <v>0.1560441344941381</v>
+        <v>0.06541651123586689</v>
       </c>
       <c r="E5">
-        <v>1.067134668290265</v>
+        <v>0.3209161034681074</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007756297047333187</v>
+        <v>0.002400045155102981</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5400175063338466</v>
+        <v>0.9104318575920836</v>
       </c>
       <c r="O5">
-        <v>2.206488410038617</v>
+        <v>2.272589650484605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.344216296871878</v>
+        <v>0.8126488178158979</v>
       </c>
       <c r="C6">
-        <v>0.6216015291192605</v>
+        <v>0.18778645969374</v>
       </c>
       <c r="D6">
-        <v>0.1548968431151394</v>
+        <v>0.06510994252035118</v>
       </c>
       <c r="E6">
-        <v>1.05878128087646</v>
+        <v>0.3186880546108881</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007759008775713823</v>
+        <v>0.00240022275360274</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5415377620591748</v>
+        <v>0.9110193502662511</v>
       </c>
       <c r="O6">
-        <v>2.194936292430356</v>
+        <v>2.270789981166274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.464543397525006</v>
+        <v>0.8473299862673684</v>
       </c>
       <c r="C7">
-        <v>0.6517788436829903</v>
+        <v>0.1968941069328025</v>
       </c>
       <c r="D7">
-        <v>0.1628783542879546</v>
+        <v>0.06724121748173673</v>
       </c>
       <c r="E7">
-        <v>1.116969649984355</v>
+        <v>0.3341619215214706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007740280372323164</v>
+        <v>0.002399001181207333</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5310813927292486</v>
+        <v>0.9069826338439597</v>
       </c>
       <c r="O7">
-        <v>2.275727262648161</v>
+        <v>2.28346789055999</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.99932466555606</v>
+        <v>1.000579220376949</v>
       </c>
       <c r="C8">
-        <v>0.7856649858019011</v>
+        <v>0.2369415970946136</v>
       </c>
       <c r="D8">
-        <v>0.1986032011101315</v>
+        <v>0.07672972408518319</v>
       </c>
       <c r="E8">
-        <v>1.379650164687177</v>
+        <v>0.4026781333234339</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007659879760875508</v>
+        <v>0.002393885932271027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.487393939312522</v>
+        <v>0.8901879366963463</v>
       </c>
       <c r="O8">
-        <v>2.64861248291129</v>
+        <v>2.344046765480954</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.068373749855652</v>
+        <v>1.301868333419861</v>
       </c>
       <c r="C9">
-        <v>1.052489623501515</v>
+        <v>0.3149682249249963</v>
       </c>
       <c r="D9">
-        <v>0.2710838769947657</v>
+        <v>0.09564487307289937</v>
       </c>
       <c r="E9">
-        <v>1.924732222673939</v>
+        <v>0.5380411872147874</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007509407407935299</v>
+        <v>0.002384837066387848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4114128595724118</v>
+        <v>0.8609220568304394</v>
       </c>
       <c r="O9">
-        <v>3.453277068610817</v>
+        <v>2.479753539211174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.873522714786759</v>
+        <v>1.523740703338603</v>
       </c>
       <c r="C10">
-        <v>1.253001173240534</v>
+        <v>0.3719989580362721</v>
       </c>
       <c r="D10">
-        <v>0.3264722736472407</v>
+        <v>0.1097386695375207</v>
       </c>
       <c r="E10">
-        <v>2.353336797316103</v>
+        <v>0.6382692049963339</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007402292928485948</v>
+        <v>0.002378780664825875</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3624186371135067</v>
+        <v>0.8416639627964813</v>
       </c>
       <c r="O10">
-        <v>4.105067381668277</v>
+        <v>2.590025063619919</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.24598071718242</v>
+        <v>1.624799985612867</v>
       </c>
       <c r="C11">
-        <v>1.345681092805535</v>
+        <v>0.3978828608658205</v>
       </c>
       <c r="D11">
-        <v>0.3523015954968542</v>
+        <v>0.1161950717264801</v>
       </c>
       <c r="E11">
-        <v>2.557096218889953</v>
+        <v>0.6840708183224251</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007354065251537973</v>
+        <v>0.002376152474220963</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3418469528018662</v>
+        <v>0.8333917987594148</v>
       </c>
       <c r="O11">
-        <v>4.418836758355553</v>
+        <v>2.642542055918113</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.38809316367184</v>
+        <v>1.663087465220087</v>
       </c>
       <c r="C12">
-        <v>1.381035081618393</v>
+        <v>0.407675991914914</v>
       </c>
       <c r="D12">
-        <v>0.3621894229069937</v>
+        <v>0.1186465576222275</v>
       </c>
       <c r="E12">
-        <v>2.635786535241763</v>
+        <v>0.7014473482350496</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007335850818374676</v>
+        <v>0.002375175381049807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3343262378305809</v>
+        <v>0.8303297557048595</v>
       </c>
       <c r="O12">
-        <v>4.540532335701982</v>
+        <v>2.662771758954023</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.357435946247506</v>
+        <v>1.654840746502089</v>
       </c>
       <c r="C13">
-        <v>1.373408659491986</v>
+        <v>0.4055672451134456</v>
       </c>
       <c r="D13">
-        <v>0.3600548779985502</v>
+        <v>0.118118291625791</v>
       </c>
       <c r="E13">
-        <v>2.618766310343702</v>
+        <v>0.6977035159659266</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007339771881731676</v>
+        <v>0.002375385010077226</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3359335906863734</v>
+        <v>0.8309860849446906</v>
       </c>
       <c r="O13">
-        <v>4.514188140329509</v>
+        <v>2.658399623855587</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.257649813626927</v>
+        <v>1.627949547980677</v>
       </c>
       <c r="C14">
-        <v>1.348584217941038</v>
+        <v>0.3986887185857881</v>
       </c>
       <c r="D14">
-        <v>0.3531128343852714</v>
+        <v>0.1163966243283312</v>
       </c>
       <c r="E14">
-        <v>2.563537735136407</v>
+        <v>0.6854997302826717</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007352565916194376</v>
+        <v>0.00237607172495862</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3412226821062134</v>
+        <v>0.8331384695677286</v>
       </c>
       <c r="O14">
-        <v>4.428788591268415</v>
+        <v>2.644199474378013</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.196673136320555</v>
+        <v>1.611480326657215</v>
       </c>
       <c r="C15">
-        <v>1.333413666847491</v>
+        <v>0.394474311411102</v>
       </c>
       <c r="D15">
-        <v>0.3488750471424567</v>
+        <v>0.1153429143367646</v>
       </c>
       <c r="E15">
-        <v>2.529916757314737</v>
+        <v>0.6780288642481906</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007360408174990063</v>
+        <v>0.00237649471777737</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3444981951921875</v>
+        <v>0.8344660477778802</v>
       </c>
       <c r="O15">
-        <v>4.376866343145309</v>
+        <v>2.63554622132267</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.849321164828893</v>
+        <v>1.517138830021679</v>
       </c>
       <c r="C16">
-        <v>1.246977713141916</v>
+        <v>0.3703061866565918</v>
       </c>
       <c r="D16">
-        <v>0.32479830971414</v>
+        <v>0.1093176443307726</v>
       </c>
       <c r="E16">
-        <v>2.340219290667122</v>
+        <v>0.6352803590481244</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007405452835135951</v>
+        <v>0.002378954968118493</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.363799444847885</v>
+        <v>0.8422144144945136</v>
       </c>
       <c r="O16">
-        <v>4.084941823638871</v>
+        <v>2.586640676848447</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.637938644502469</v>
+        <v>1.459296302616622</v>
       </c>
       <c r="C17">
-        <v>1.19435912762782</v>
+        <v>0.3554645688490723</v>
       </c>
       <c r="D17">
-        <v>0.3102007587113746</v>
+        <v>0.1056329534862641</v>
       </c>
       <c r="E17">
-        <v>2.22627287378441</v>
+        <v>0.6091105125323395</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007433198452041017</v>
+        <v>0.002380496680864501</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3760948878197006</v>
+        <v>0.8470930336244749</v>
       </c>
       <c r="O17">
-        <v>3.910542666753713</v>
+        <v>2.557244557156537</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.516927674739122</v>
+        <v>1.426038894238843</v>
       </c>
       <c r="C18">
-        <v>1.164229113787087</v>
+        <v>0.3469224442941083</v>
       </c>
       <c r="D18">
-        <v>0.301863147320006</v>
+        <v>0.1035178519105955</v>
       </c>
       <c r="E18">
-        <v>2.161542363402361</v>
+        <v>0.5940776694852588</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007449205567856223</v>
+        <v>0.002381395383206441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3833269230229668</v>
+        <v>0.8499450475608228</v>
       </c>
       <c r="O18">
-        <v>3.811831551616876</v>
+        <v>2.540557997430085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.476048346485186</v>
+        <v>1.414780581282855</v>
       </c>
       <c r="C19">
-        <v>1.154049430195812</v>
+        <v>0.3440292616461988</v>
       </c>
       <c r="D19">
-        <v>0.2990497743069227</v>
+        <v>0.102802439028963</v>
       </c>
       <c r="E19">
-        <v>2.139757134270681</v>
+        <v>0.5889910527613438</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007454634306362976</v>
+        <v>0.002381701724035623</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3858024049109083</v>
+        <v>0.8509185781239523</v>
       </c>
       <c r="O19">
-        <v>3.778673052962347</v>
+        <v>2.534946099050842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.660380383887059</v>
+        <v>1.465452487475204</v>
       </c>
       <c r="C20">
-        <v>1.199946193272638</v>
+        <v>0.357045065630416</v>
       </c>
       <c r="D20">
-        <v>0.3117485285524282</v>
+        <v>0.1060247560255902</v>
       </c>
       <c r="E20">
-        <v>2.238317195057775</v>
+        <v>0.6118943146406224</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000743024001633492</v>
+        <v>0.002380331326716912</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3747693002883139</v>
+        <v>0.8465689380096393</v>
       </c>
       <c r="O20">
-        <v>3.928939606413337</v>
+        <v>2.560350889465951</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.286928800254373</v>
+        <v>1.635847641582302</v>
       </c>
       <c r="C21">
-        <v>1.355868341379676</v>
+        <v>0.4007093400332451</v>
       </c>
       <c r="D21">
-        <v>0.3551488457258074</v>
+        <v>0.1169021401369719</v>
       </c>
       <c r="E21">
-        <v>2.579715789865034</v>
+        <v>0.6890833760429302</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007348806889859603</v>
+        <v>0.002375869528450223</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3396616445406764</v>
+        <v>0.8325043484405654</v>
       </c>
       <c r="O21">
-        <v>4.453790982917951</v>
+        <v>2.648361069449265</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.702757739823426</v>
+        <v>1.747318732050132</v>
       </c>
       <c r="C22">
-        <v>1.459304223419906</v>
+        <v>0.4291967054154497</v>
       </c>
       <c r="D22">
-        <v>0.3841449545535767</v>
+        <v>0.1240495810455542</v>
       </c>
       <c r="E22">
-        <v>2.811923295523769</v>
+        <v>0.739721298735617</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007295853992625435</v>
+        <v>0.002373059206490188</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3182991892941658</v>
+        <v>0.8237230417123627</v>
       </c>
       <c r="O22">
-        <v>4.813811141993824</v>
+        <v>2.707880044962565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.480175266220385</v>
+        <v>1.68781460614224</v>
       </c>
       <c r="C23">
-        <v>1.403940873697309</v>
+        <v>0.4139970012097365</v>
       </c>
       <c r="D23">
-        <v>0.3686056402378881</v>
+        <v>0.120231304384987</v>
       </c>
       <c r="E23">
-        <v>2.687057529533845</v>
+        <v>0.7126765847421268</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007324100046008183</v>
+        <v>0.002374549488305271</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3295477459872487</v>
+        <v>0.8283721387044309</v>
       </c>
       <c r="O23">
-        <v>4.619960859639605</v>
+        <v>2.675929329946939</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.650232880651799</v>
+        <v>1.462669285555251</v>
       </c>
       <c r="C24">
-        <v>1.197419907135497</v>
+        <v>0.3563305525744909</v>
       </c>
       <c r="D24">
-        <v>0.3110486125513745</v>
+        <v>0.1058476119019502</v>
       </c>
       <c r="E24">
-        <v>2.232869551196728</v>
+        <v>0.6106357188408538</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007431577350083676</v>
+        <v>0.002380406044883362</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3753680916880668</v>
+        <v>0.8468057345283668</v>
       </c>
       <c r="O24">
-        <v>3.920617541003935</v>
+        <v>2.558945851403905</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.776285007696117</v>
+        <v>1.22027465209726</v>
       </c>
       <c r="C25">
-        <v>0.9796697492808164</v>
+        <v>0.2939128168450793</v>
       </c>
       <c r="D25">
-        <v>0.2511525319196011</v>
+        <v>0.09049390800328183</v>
       </c>
       <c r="E25">
-        <v>1.773131559230549</v>
+        <v>0.5012975497999435</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007549435416301495</v>
+        <v>0.002387180599359666</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4308411064269926</v>
+        <v>0.8684458098405834</v>
       </c>
       <c r="O25">
-        <v>3.226207018951669</v>
+        <v>2.441204220137791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.042152351287598</v>
+        <v>3.145357306553706</v>
       </c>
       <c r="C2">
-        <v>0.2477577134807518</v>
+        <v>0.8221690606025049</v>
       </c>
       <c r="D2">
-        <v>0.07932116302885106</v>
+        <v>0.2084247979948373</v>
       </c>
       <c r="E2">
-        <v>0.4213043912050125</v>
+        <v>1.452532459522473</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00239256667934717</v>
+        <v>0.0007638613537527876</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8858854290019202</v>
+        <v>0.4761816884849814</v>
       </c>
       <c r="O2">
-        <v>2.36159559119335</v>
+        <v>2.754089290005084</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9216377364107871</v>
+        <v>2.723188152310058</v>
       </c>
       <c r="C3">
-        <v>0.21634972604312</v>
+        <v>0.716576244204532</v>
       </c>
       <c r="D3">
-        <v>0.07182853882660822</v>
+        <v>0.1801071248909238</v>
       </c>
       <c r="E3">
-        <v>0.3673556333177004</v>
+        <v>1.243186174192473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002396467511749116</v>
+        <v>0.0007700860059116975</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8986418128053337</v>
+        <v>0.5094115383936177</v>
       </c>
       <c r="O3">
-        <v>2.311976073344738</v>
+        <v>2.453354598559258</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8477359112253566</v>
+        <v>2.465953166766553</v>
       </c>
       <c r="C4">
-        <v>0.1970005991078381</v>
+        <v>0.6521322774538305</v>
       </c>
       <c r="D4">
-        <v>0.06726620138621797</v>
+        <v>0.1629719971021188</v>
       </c>
       <c r="E4">
-        <v>0.3343431044413165</v>
+        <v>1.117653393126872</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002398987038450047</v>
+        <v>0.0007740062493154063</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9069359562920027</v>
+        <v>0.5309603461415691</v>
       </c>
       <c r="O4">
-        <v>2.283618760817149</v>
+        <v>2.276680949504851</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8176441028412</v>
+        <v>2.361533213426014</v>
       </c>
       <c r="C5">
-        <v>0.1890994255425085</v>
+        <v>0.6259458683298647</v>
       </c>
       <c r="D5">
-        <v>0.06541651123586689</v>
+        <v>0.1560441344941381</v>
       </c>
       <c r="E5">
-        <v>0.3209161034681074</v>
+        <v>1.067134668290279</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002400045155102981</v>
+        <v>0.0007756297046737797</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9104318575920836</v>
+        <v>0.5400175063338359</v>
       </c>
       <c r="O5">
-        <v>2.272589650484605</v>
+        <v>2.20648841003856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8126488178158979</v>
+        <v>2.344216296871707</v>
       </c>
       <c r="C6">
-        <v>0.18778645969374</v>
+        <v>0.6216015291191468</v>
       </c>
       <c r="D6">
-        <v>0.06510994252035118</v>
+        <v>0.1548968431150826</v>
       </c>
       <c r="E6">
-        <v>0.3186880546108881</v>
+        <v>1.058781280876403</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00240022275360274</v>
+        <v>0.0007759008775722653</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9110193502662511</v>
+        <v>0.541537762059189</v>
       </c>
       <c r="O6">
-        <v>2.270789981166274</v>
+        <v>2.194936292430299</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8473299862673684</v>
+        <v>2.464543397524892</v>
       </c>
       <c r="C7">
-        <v>0.1968941069328025</v>
+        <v>0.6517788436832745</v>
       </c>
       <c r="D7">
-        <v>0.06724121748173673</v>
+        <v>0.1628783542879688</v>
       </c>
       <c r="E7">
-        <v>0.3341619215214706</v>
+        <v>1.116969649984384</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002399001181207333</v>
+        <v>0.0007740280372900421</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9069826338439597</v>
+        <v>0.5310813927293125</v>
       </c>
       <c r="O7">
-        <v>2.28346789055999</v>
+        <v>2.275727262648189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.000579220376949</v>
+        <v>2.99932466555606</v>
       </c>
       <c r="C8">
-        <v>0.2369415970946136</v>
+        <v>0.7856649858018727</v>
       </c>
       <c r="D8">
-        <v>0.07672972408518319</v>
+        <v>0.1986032011101884</v>
       </c>
       <c r="E8">
-        <v>0.4026781333234339</v>
+        <v>1.379650164687163</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002393885932271027</v>
+        <v>0.0007659879761204932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8901879366963463</v>
+        <v>0.4873939393125362</v>
       </c>
       <c r="O8">
-        <v>2.344046765480954</v>
+        <v>2.648612482911318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.301868333419861</v>
+        <v>4.068373749855539</v>
       </c>
       <c r="C9">
-        <v>0.3149682249249963</v>
+        <v>1.052489623501231</v>
       </c>
       <c r="D9">
-        <v>0.09564487307289937</v>
+        <v>0.2710838769947799</v>
       </c>
       <c r="E9">
-        <v>0.5380411872147874</v>
+        <v>1.92473222267401</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002384837066387848</v>
+        <v>0.0007509407407203652</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8609220568304394</v>
+        <v>0.4114128595724083</v>
       </c>
       <c r="O9">
-        <v>2.479753539211174</v>
+        <v>3.453277068610817</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523740703338603</v>
+        <v>4.873522714786816</v>
       </c>
       <c r="C10">
-        <v>0.3719989580362721</v>
+        <v>1.253001173240534</v>
       </c>
       <c r="D10">
-        <v>0.1097386695375207</v>
+        <v>0.3264722736474539</v>
       </c>
       <c r="E10">
-        <v>0.6382692049963339</v>
+        <v>2.353336797316061</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002378780664825875</v>
+        <v>0.0007402292927807171</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8416639627964813</v>
+        <v>0.3624186371135139</v>
       </c>
       <c r="O10">
-        <v>2.590025063619919</v>
+        <v>4.105067381668277</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.624799985612867</v>
+        <v>5.245980717182647</v>
       </c>
       <c r="C11">
-        <v>0.3978828608658205</v>
+        <v>1.345681092805535</v>
       </c>
       <c r="D11">
-        <v>0.1161950717264801</v>
+        <v>0.3523015954969679</v>
       </c>
       <c r="E11">
-        <v>0.6840708183224251</v>
+        <v>2.557096218889953</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002376152474220963</v>
+        <v>0.0007354065251263689</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8333917987594148</v>
+        <v>0.3418469528019301</v>
       </c>
       <c r="O11">
-        <v>2.642542055918113</v>
+        <v>4.418836758355496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.663087465220087</v>
+        <v>5.38809316367184</v>
       </c>
       <c r="C12">
-        <v>0.407675991914914</v>
+        <v>1.381035081618506</v>
       </c>
       <c r="D12">
-        <v>0.1186465576222275</v>
+        <v>0.3621894229069085</v>
       </c>
       <c r="E12">
-        <v>0.7014473482350496</v>
+        <v>2.635786535241735</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002375175381049807</v>
+        <v>0.0007335850818100687</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8303297557048595</v>
+        <v>0.3343262378305809</v>
       </c>
       <c r="O12">
-        <v>2.662771758954023</v>
+        <v>4.540532335701982</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.654840746502089</v>
+        <v>5.357435946247392</v>
       </c>
       <c r="C13">
-        <v>0.4055672451134456</v>
+        <v>1.373408659492156</v>
       </c>
       <c r="D13">
-        <v>0.118118291625791</v>
+        <v>0.3600548779985502</v>
       </c>
       <c r="E13">
-        <v>0.6977035159659266</v>
+        <v>2.618766310343702</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002375385010077226</v>
+        <v>0.0007339771882140815</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8309860849446906</v>
+        <v>0.3359335906864303</v>
       </c>
       <c r="O13">
-        <v>2.658399623855587</v>
+        <v>4.514188140329452</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.627949547980677</v>
+        <v>5.257649813626756</v>
       </c>
       <c r="C14">
-        <v>0.3986887185857881</v>
+        <v>1.348584217941038</v>
       </c>
       <c r="D14">
-        <v>0.1163966243283312</v>
+        <v>0.3531128343852856</v>
       </c>
       <c r="E14">
-        <v>0.6854997302826717</v>
+        <v>2.563537735136393</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00237607172495862</v>
+        <v>0.000735256591593483</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8331384695677286</v>
+        <v>0.3412226821062276</v>
       </c>
       <c r="O14">
-        <v>2.644199474378013</v>
+        <v>4.428788591268301</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.611480326657215</v>
+        <v>5.196673136320499</v>
       </c>
       <c r="C15">
-        <v>0.394474311411102</v>
+        <v>1.333413666847377</v>
       </c>
       <c r="D15">
-        <v>0.1153429143367646</v>
+        <v>0.348875047142684</v>
       </c>
       <c r="E15">
-        <v>0.6780288642481906</v>
+        <v>2.529916757314751</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00237649471777737</v>
+        <v>0.0007360408174979195</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8344660477778802</v>
+        <v>0.3444981951922514</v>
       </c>
       <c r="O15">
-        <v>2.63554622132267</v>
+        <v>4.376866343145309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.517138830021679</v>
+        <v>4.849321164828837</v>
       </c>
       <c r="C16">
-        <v>0.3703061866565918</v>
+        <v>1.24697771314203</v>
       </c>
       <c r="D16">
-        <v>0.1093176443307726</v>
+        <v>0.3247983097143248</v>
       </c>
       <c r="E16">
-        <v>0.6352803590481244</v>
+        <v>2.340219290667136</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002378954968118493</v>
+        <v>0.0007405452835532084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8422144144945136</v>
+        <v>0.3637994448478921</v>
       </c>
       <c r="O16">
-        <v>2.586640676848447</v>
+        <v>4.084941823638871</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.459296302616622</v>
+        <v>4.637938644502356</v>
       </c>
       <c r="C17">
-        <v>0.3554645688490723</v>
+        <v>1.194359127627934</v>
       </c>
       <c r="D17">
-        <v>0.1056329534862641</v>
+        <v>0.3102007587114031</v>
       </c>
       <c r="E17">
-        <v>0.6091105125323395</v>
+        <v>2.226272873784396</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002380496680864501</v>
+        <v>0.0007433198452412331</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8470930336244749</v>
+        <v>0.3760948878196899</v>
       </c>
       <c r="O17">
-        <v>2.557244557156537</v>
+        <v>3.91054266675377</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.426038894238843</v>
+        <v>4.516927674739065</v>
       </c>
       <c r="C18">
-        <v>0.3469224442941083</v>
+        <v>1.164229113787115</v>
       </c>
       <c r="D18">
-        <v>0.1035178519105955</v>
+        <v>0.301863147320077</v>
       </c>
       <c r="E18">
-        <v>0.5940776694852588</v>
+        <v>2.161542363402361</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002381395383206441</v>
+        <v>0.0007449205567869382</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8499450475608228</v>
+        <v>0.3833269230229774</v>
       </c>
       <c r="O18">
-        <v>2.540557997430085</v>
+        <v>3.81183155161682</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.414780581282855</v>
+        <v>4.476048346485072</v>
       </c>
       <c r="C19">
-        <v>0.3440292616461988</v>
+        <v>1.154049430195954</v>
       </c>
       <c r="D19">
-        <v>0.102802439028963</v>
+        <v>0.299049774306809</v>
       </c>
       <c r="E19">
-        <v>0.5889910527613438</v>
+        <v>2.13975713427071</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002381701724035623</v>
+        <v>0.00074546343070277</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8509185781239523</v>
+        <v>0.3858024049109119</v>
       </c>
       <c r="O19">
-        <v>2.534946099050842</v>
+        <v>3.778673052962404</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.465452487475204</v>
+        <v>4.660380383886888</v>
       </c>
       <c r="C20">
-        <v>0.357045065630416</v>
+        <v>1.199946193272524</v>
       </c>
       <c r="D20">
-        <v>0.1060247560255902</v>
+        <v>0.3117485285525134</v>
       </c>
       <c r="E20">
-        <v>0.6118943146406224</v>
+        <v>2.238317195057803</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002380331326716912</v>
+        <v>0.000743024001635284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8465689380096393</v>
+        <v>0.3747693002883281</v>
       </c>
       <c r="O20">
-        <v>2.560350889465951</v>
+        <v>3.92893960641328</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.635847641582302</v>
+        <v>5.286928800254202</v>
       </c>
       <c r="C21">
-        <v>0.4007093400332451</v>
+        <v>1.355868341379789</v>
       </c>
       <c r="D21">
-        <v>0.1169021401369719</v>
+        <v>0.3551488457257932</v>
       </c>
       <c r="E21">
-        <v>0.6890833760429302</v>
+        <v>2.579715789865048</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002375869528450223</v>
+        <v>0.0007348806889048107</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8325043484405654</v>
+        <v>0.3396616445406835</v>
       </c>
       <c r="O21">
-        <v>2.648361069449265</v>
+        <v>4.453790982917837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.747318732050132</v>
+        <v>5.702757739823539</v>
       </c>
       <c r="C22">
-        <v>0.4291967054154497</v>
+        <v>1.459304223419849</v>
       </c>
       <c r="D22">
-        <v>0.1240495810455542</v>
+        <v>0.3841449545535767</v>
       </c>
       <c r="E22">
-        <v>0.739721298735617</v>
+        <v>2.811923295523769</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002373059206490188</v>
+        <v>0.0007295853992907049</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8237230417123627</v>
+        <v>0.3182991892941658</v>
       </c>
       <c r="O22">
-        <v>2.707880044962565</v>
+        <v>4.81381114199371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.68781460614224</v>
+        <v>5.480175266220499</v>
       </c>
       <c r="C23">
-        <v>0.4139970012097365</v>
+        <v>1.403940873697309</v>
       </c>
       <c r="D23">
-        <v>0.120231304384987</v>
+        <v>0.3686056402381013</v>
       </c>
       <c r="E23">
-        <v>0.7126765847421268</v>
+        <v>2.687057529533845</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002374549488305271</v>
+        <v>0.0007324100045188159</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8283721387044309</v>
+        <v>0.3295477459873055</v>
       </c>
       <c r="O23">
-        <v>2.675929329946939</v>
+        <v>4.619960859639605</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.462669285555251</v>
+        <v>4.650232880651629</v>
       </c>
       <c r="C24">
-        <v>0.3563305525744909</v>
+        <v>1.197419907135497</v>
       </c>
       <c r="D24">
-        <v>0.1058476119019502</v>
+        <v>0.3110486125514598</v>
       </c>
       <c r="E24">
-        <v>0.6106357188408538</v>
+        <v>2.232869551196742</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002380406044883362</v>
+        <v>0.0007431577349690244</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8468057345283668</v>
+        <v>0.3753680916880668</v>
       </c>
       <c r="O24">
-        <v>2.558945851403905</v>
+        <v>3.920617541003878</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.22027465209726</v>
+        <v>3.776285007695947</v>
       </c>
       <c r="C25">
-        <v>0.2939128168450793</v>
+        <v>0.9796697492808164</v>
       </c>
       <c r="D25">
-        <v>0.09049390800328183</v>
+        <v>0.2511525319196153</v>
       </c>
       <c r="E25">
-        <v>0.5012975497999435</v>
+        <v>1.773131559230521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002387180599359666</v>
+        <v>0.0007549435416292613</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8684458098405834</v>
+        <v>0.4308411064270423</v>
       </c>
       <c r="O25">
-        <v>2.441204220137791</v>
+        <v>3.226207018951641</v>
       </c>
     </row>
   </sheetData>
